--- a/materiais/Novo_Material_2025/Novo_Material_2025/Materiais_Power_BI_Analytics/2_MODULO  - POWER_BI - Essentials/2_LOCAOÇÃO DE VEICULOS/CLIENTES.xlsx
+++ b/materiais/Novo_Material_2025/Novo_Material_2025/Materiais_Power_BI_Analytics/2_MODULO  - POWER_BI - Essentials/2_LOCAOÇÃO DE VEICULOS/CLIENTES.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\DATA_ANALYTICIS\POWER BI\PROFESSOR\AULA - 2_LOCAOÇÃO DE VEICULOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.carregozi\Desktop\curso-pbi-sqlserver\materiais\Novo_Material_2025\Novo_Material_2025\Materiais_Power_BI_Analytics\2_MODULO  - POWER_BI - Essentials\2_LOCAOÇÃO DE VEICULOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E089CC99-99C5-4A85-9E5B-BBF61438AA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{A1FE9260-B72C-4EC0-948F-971133375286}"/>
+    <workbookView xWindow="20280" yWindow="-120" windowWidth="19440" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$28</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>NOME</t>
   </si>
@@ -222,16 +221,25 @@
   </si>
   <si>
     <t>OSASCO</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>TAGUATINGA</t>
+  </si>
+  <si>
+    <t>BARROS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +265,14 @@
     <font>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -341,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -370,13 +386,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -693,21 +718,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112B085A-D0B1-452C-BF11-97DBB2E9F98B}">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD32"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="21.85546875" style="1"/>
-    <col min="3" max="3" width="45.42578125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="21.85546875" style="1"/>
+    <col min="1" max="2" width="21.81640625" style="1"/>
+    <col min="3" max="3" width="45.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" style="15"/>
+    <col min="5" max="16384" width="21.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
@@ -717,14 +741,14 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>658</v>
       </c>
@@ -734,14 +758,14 @@
       <c r="C2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="12">
         <v>8000</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>375</v>
       </c>
@@ -751,14 +775,14 @@
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="13">
         <v>4558</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>584</v>
       </c>
@@ -768,14 +792,14 @@
       <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="12">
         <v>1760</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>12</v>
       </c>
@@ -785,14 +809,14 @@
       <c r="C5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="13">
         <v>4921</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>569</v>
       </c>
@@ -802,14 +826,14 @@
       <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="12">
         <v>7990</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>856</v>
       </c>
@@ -819,14 +843,14 @@
       <c r="C7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="13">
         <v>5232</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>696</v>
       </c>
@@ -836,14 +860,14 @@
       <c r="C8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="12">
         <v>3455</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>326</v>
       </c>
@@ -853,14 +877,14 @@
       <c r="C9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="13">
         <v>5846</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>874</v>
       </c>
@@ -870,14 +894,14 @@
       <c r="C10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="12">
         <v>8257</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>325</v>
       </c>
@@ -887,14 +911,14 @@
       <c r="C11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="13">
         <v>5516</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>698</v>
       </c>
@@ -904,14 +928,14 @@
       <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="12">
         <v>2447</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>523</v>
       </c>
@@ -921,14 +945,14 @@
       <c r="C13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="13">
         <v>4088</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>852</v>
       </c>
@@ -938,14 +962,14 @@
       <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="12">
         <v>7364</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>627</v>
       </c>
@@ -955,14 +979,14 @@
       <c r="C15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="13">
         <v>2240</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>753</v>
       </c>
@@ -972,14 +996,14 @@
       <c r="C16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="12">
         <v>2110</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>951</v>
       </c>
@@ -989,14 +1013,14 @@
       <c r="C17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="13">
         <v>4254</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>378</v>
       </c>
@@ -1006,14 +1030,14 @@
       <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="12">
         <v>8853</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>136</v>
       </c>
@@ -1023,14 +1047,14 @@
       <c r="C19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="13">
         <v>4225</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>185</v>
       </c>
@@ -1040,14 +1064,14 @@
       <c r="C20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="12">
         <v>7042</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>198</v>
       </c>
@@ -1057,14 +1081,14 @@
       <c r="C21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="13">
         <v>6258</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>147</v>
       </c>
@@ -1074,14 +1098,14 @@
       <c r="C22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="12">
         <v>7643</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>9856</v>
       </c>
@@ -1091,14 +1115,14 @@
       <c r="C23" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="13">
         <v>4106</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>3258</v>
       </c>
@@ -1108,14 +1132,14 @@
       <c r="C24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="12">
         <v>2758</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>3985</v>
       </c>
@@ -1125,14 +1149,14 @@
       <c r="C25" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="13">
         <v>6442</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>3652</v>
       </c>
@@ -1142,14 +1166,14 @@
       <c r="C26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="12">
         <v>7362</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>98741</v>
       </c>
@@ -1159,14 +1183,14 @@
       <c r="C27" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="13">
         <v>5884</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>6528</v>
       </c>
@@ -1176,15 +1200,33 @@
       <c r="C28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="14">
         <v>1567</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>1234</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="15">
+        <v>6000</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>